--- a/라키비움_경기천년사업과업정리1차.xlsx
+++ b/라키비움_경기천년사업과업정리1차.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-3915" yWindow="870" windowWidth="27975" windowHeight="13170"/>
+    <workbookView xWindow="-3915" yWindow="870" windowWidth="27975" windowHeight="13170" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="2018" sheetId="1" r:id="rId1"/>
-    <sheet name="2017" sheetId="2" r:id="rId2"/>
+    <sheet name="2017" sheetId="2" r:id="rId1"/>
+    <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2018수정" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2017'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2017'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="463">
   <si>
     <t>도민참여</t>
   </si>
@@ -1203,10 +1204,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>경기천년 CF형 홍보영상 제작</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.08.~12.</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1220,10 +1217,6 @@
   </si>
   <si>
     <t>홍보 및 노출</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기천년 기념 '내가 사랑하는 경기' 영상 제작</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -2113,6 +2106,95 @@
   <si>
     <t>2018.03.~04.</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년 DMZ 답사단(실행계획)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 CF형 홍보영상 제작(세부계획)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기천년 기념 '내가 사랑하는 경기' 영상 제작(사업계획)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획사업 추진계획</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>추진계획</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행계획</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*기자단</t>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*콘텐츠공모전</t>
+  </si>
+  <si>
+    <t>기획홍보추진계획 세부로 재추진</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*DMZ답사단</t>
+  </si>
+  <si>
+    <t>*천년소풍</t>
+  </si>
+  <si>
+    <t>*미디어파사드</t>
+  </si>
+  <si>
+    <t>*영상.아카이브</t>
+  </si>
+  <si>
+    <t>기록아카이브</t>
+  </si>
+  <si>
+    <t>CF형 홍보영상 제작</t>
+  </si>
+  <si>
+    <t>(세부계획)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>내사경 다큐</t>
+  </si>
+  <si>
+    <t>(사업계획)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>과정아카이브</t>
+  </si>
+  <si>
+    <t>*경기그레이트북스</t>
+  </si>
+  <si>
+    <t>*경기천년999생일잔치</t>
+  </si>
+  <si>
+    <t>*경기천년 선포식</t>
+  </si>
+  <si>
+    <t>*정책연구</t>
+  </si>
+  <si>
+    <t>*홍보기획</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2627,6 +2709,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,7 +3064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3122,12 +3222,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3274,6 +3368,57 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3610,9 +3755,1181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G84"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="78.625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="48.125" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="23" customFormat="1" ht="24">
+      <c r="A1" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1">
+      <c r="A2" s="108" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1">
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="1:7" s="18" customFormat="1">
+      <c r="A5" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" s="18" customFormat="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" s="18" customFormat="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" s="18" customFormat="1">
+      <c r="A8" s="102"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" s="18" customFormat="1">
+      <c r="A9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" s="18" customFormat="1">
+      <c r="A10" s="102"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" s="18" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A11" s="105"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1">
+      <c r="A12" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" s="18" customFormat="1">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" s="18" customFormat="1">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="24">
+      <c r="A16" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="18" customFormat="1">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" s="18" customFormat="1">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" s="18" customFormat="1">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" s="18" customFormat="1">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" s="18" customFormat="1">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" s="17" customFormat="1">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" s="17" customFormat="1">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" s="17" customFormat="1">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" ht="36">
+      <c r="A30" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" s="17" customFormat="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" s="17" customFormat="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" s="17" customFormat="1">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" s="17" customFormat="1">
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" s="17" customFormat="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" s="17" customFormat="1">
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" s="17" customFormat="1">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+    </row>
+    <row r="39" spans="1:7" s="66" customFormat="1">
+      <c r="A39" s="50"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" s="17" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+    </row>
+    <row r="41" spans="1:7" s="17" customFormat="1">
+      <c r="A41" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="48"/>
+    </row>
+    <row r="42" spans="1:7" s="17" customFormat="1">
+      <c r="A42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" s="17" customFormat="1">
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" s="17" customFormat="1">
+      <c r="A44" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" s="48"/>
+    </row>
+    <row r="45" spans="1:7" s="17" customFormat="1">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+    </row>
+    <row r="46" spans="1:7" s="17" customFormat="1">
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+    </row>
+    <row r="47" spans="1:7" s="17" customFormat="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+    </row>
+    <row r="48" spans="1:7" s="17" customFormat="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+    </row>
+    <row r="49" spans="1:7" s="17" customFormat="1">
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+    </row>
+    <row r="50" spans="1:7" s="17" customFormat="1">
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+    </row>
+    <row r="51" spans="1:7" ht="24">
+      <c r="A51" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" s="48"/>
+    </row>
+    <row r="52" spans="1:7" s="17" customFormat="1">
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" ht="36">
+      <c r="A53" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" s="17" customFormat="1">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" s="17" customFormat="1">
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" s="17" customFormat="1">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" s="17" customFormat="1">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:7" s="17" customFormat="1">
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7" s="17" customFormat="1">
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="1:7" s="17" customFormat="1">
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:7" s="17" customFormat="1">
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" s="17" customFormat="1">
+      <c r="A64" s="50"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7" s="17" customFormat="1">
+      <c r="A66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:7" s="17" customFormat="1">
+      <c r="A67" s="50"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" spans="1:7" s="17" customFormat="1">
+      <c r="A68" s="50"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" s="17" customFormat="1">
+      <c r="A70" s="50"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" s="17" customFormat="1">
+      <c r="A71" s="50"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G72" s="52"/>
+    </row>
+    <row r="73" spans="1:7" s="17" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A73" s="44"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="F74" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G74" s="48"/>
+    </row>
+    <row r="75" spans="1:7" s="17" customFormat="1">
+      <c r="A75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" s="17" customFormat="1">
+      <c r="A76" s="50"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="1:7" s="17" customFormat="1">
+      <c r="A77" s="50"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7" s="17" customFormat="1">
+      <c r="A78" s="50"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" s="17" customFormat="1">
+      <c r="A80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" s="17" customFormat="1">
+      <c r="A81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" ht="17.25" thickBot="1">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1">
+    <filterColumn colId="3"/>
+    <sortState ref="A2:D22">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
@@ -3626,2216 +4943,1044 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="67" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="97" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="99" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71" t="s">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="71"/>
+      <c r="B6" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="71"/>
+      <c r="B7" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="99" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="71" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="71"/>
+      <c r="B8" s="69" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="71" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="78" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="60" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="60" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="60" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="80" t="s">
-        <v>361</v>
+      <c r="E18" s="78" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="77" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="78" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="93" t="s">
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="90" t="s">
+      <c r="E27" s="88" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="79" t="s">
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="79" t="s">
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="79" t="s">
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
     </row>
     <row r="31" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="79" t="s">
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="79" t="s">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="78" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="83"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="79" t="s">
+      <c r="A34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="93" t="s">
+      <c r="A35" s="95"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="90" t="s">
+      <c r="E36" s="88" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79" t="s">
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
     </row>
     <row r="38" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="83" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
     </row>
     <row r="40" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79" t="s">
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
     </row>
     <row r="41" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="77" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79" t="s">
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
     </row>
     <row r="43" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="77"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="79" t="s">
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
     </row>
     <row r="44" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="79" t="s">
+      <c r="D44" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="E44" s="78" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="79" t="s">
+      <c r="A45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
     </row>
     <row r="46" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="79" t="s">
+      <c r="A46" s="75"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="79" t="s">
+      <c r="D47" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="77" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="60" t="s">
+      <c r="A48" s="75"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="60" t="s">
+      <c r="A49" s="75"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
     </row>
     <row r="50" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="77"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="60" t="s">
+      <c r="A50" s="75"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
     </row>
     <row r="51" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="78" t="s">
+      <c r="B51" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="86">
+      <c r="D51" s="84">
         <v>2018.04</v>
       </c>
-      <c r="E51" s="79" t="s">
+      <c r="E51" s="77" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="79" t="s">
+      <c r="A52" s="75"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
     </row>
     <row r="53" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79" t="s">
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
     </row>
     <row r="54" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="79" t="s">
+      <c r="D54" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="85" t="s">
+      <c r="E54" s="83" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="77"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="79" t="s">
+      <c r="A55" s="75"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
     </row>
     <row r="56" spans="1:5" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="77" t="s">
+      <c r="A56" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="79" t="s">
-        <v>438</v>
-      </c>
-      <c r="E56" s="79" t="s">
+      <c r="D56" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="E56" s="77" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="77"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79" t="s">
+      <c r="A57" s="75"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="79" t="s">
+      <c r="A58" s="75"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
     </row>
     <row r="59" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="77" t="s">
+      <c r="A59" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="80" t="s">
+      <c r="D59" s="77"/>
+      <c r="E59" s="78" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="60" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
     </row>
     <row r="61" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="60" t="s">
+      <c r="A61" s="75"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
     </row>
     <row r="62" spans="1:5" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="79" t="s">
+      <c r="D62" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="79" t="s">
+      <c r="E62" s="77" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="77"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="79" t="s">
+      <c r="A63" s="75"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="79" t="s">
+      <c r="D64" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="79" t="s">
+      <c r="E64" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="77"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="79" t="s">
+      <c r="A65" s="75"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A66" s="91"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="93" t="s">
+      <c r="A66" s="89"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="89" t="s">
+      <c r="E67" s="87" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="77"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="60" t="s">
+      <c r="A68" s="75"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="77"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="60" t="s">
+      <c r="A69" s="75"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="77"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="60" t="s">
+      <c r="A70" s="75"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="77"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="60" t="s">
+      <c r="A71" s="75"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="78" t="s">
+      <c r="B72" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="79" t="s">
+      <c r="C72" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="80" t="s">
+      <c r="E72" s="78" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="77"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="79" t="s">
+      <c r="A73" s="75"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
     </row>
     <row r="74" spans="1:5" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="77"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="79" t="s">
+      <c r="A74" s="75"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
     </row>
     <row r="75" spans="1:5" s="17" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="77" t="s">
+      <c r="A75" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="80" t="s">
+      <c r="D75" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="80" t="s">
-        <v>360</v>
+      <c r="E75" s="78" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="79" t="s">
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="79"/>
-      <c r="E76" s="79"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
     </row>
     <row r="77" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="77"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="79" t="s">
+      <c r="A77" s="75"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="79"/>
-      <c r="E77" s="79"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
     </row>
     <row r="78" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="77"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="79" t="s">
+      <c r="A78" s="75"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
     </row>
     <row r="79" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="79" t="s">
+      <c r="A79" s="75"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="D79" s="79"/>
-      <c r="E79" s="79"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
     </row>
     <row r="80" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="77"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="79" t="s">
+      <c r="A80" s="75"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="79"/>
-      <c r="E80" s="79"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
     </row>
     <row r="81" spans="1:5" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="77" t="s">
+      <c r="A81" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="78" t="s">
+      <c r="B81" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="D81" s="80" t="s">
+      <c r="D81" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="80" t="s">
+      <c r="E81" s="78" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="83"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="60" t="s">
+      <c r="A82" s="81"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="83"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="60" t="s">
+      <c r="A83" s="81"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="83"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="60" t="s">
+      <c r="A84" s="81"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="84" t="s">
+      <c r="B85" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D85" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E85" s="60" t="s">
+      <c r="E85" s="58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="83"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="60" t="s">
+      <c r="A86" s="81"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="83"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="60" t="s">
+      <c r="A87" s="81"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="60" t="s">
+      <c r="A88" s="81"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="83"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="60" t="s">
+      <c r="A89" s="81"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B90" s="84" t="s">
+      <c r="B90" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="84" t="s">
+      <c r="C90" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="D90" s="60" t="s">
+      <c r="D90" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E90" s="60" t="s">
+      <c r="E90" s="58" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="83"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84" t="s">
+      <c r="A91" s="81"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="83"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84" t="s">
+      <c r="A92" s="81"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="55" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="78.625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="48.125" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" ht="24">
-      <c r="A1" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="E1" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="101" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="18" customFormat="1">
-      <c r="A2" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="1:7" s="18" customFormat="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" s="18" customFormat="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" s="18" customFormat="1">
-      <c r="A5" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" s="18" customFormat="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" s="18" customFormat="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-    </row>
-    <row r="8" spans="1:7" s="18" customFormat="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7" s="18" customFormat="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1">
-      <c r="A12" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" s="18" customFormat="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="18" customFormat="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" s="18" customFormat="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="24">
-      <c r="A16" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" s="18" customFormat="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" s="18" customFormat="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" s="18" customFormat="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" s="18" customFormat="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23" spans="1:7" s="17" customFormat="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" s="17" customFormat="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" s="17" customFormat="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" s="17" customFormat="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" s="17" customFormat="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" s="17" customFormat="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" ht="36">
-      <c r="A30" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" s="17" customFormat="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" s="17" customFormat="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" s="17" customFormat="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" s="17" customFormat="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" s="17" customFormat="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" s="17" customFormat="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" s="17" customFormat="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-    </row>
-    <row r="39" spans="1:7" s="68" customFormat="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" s="17" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-    </row>
-    <row r="41" spans="1:7" s="17" customFormat="1">
-      <c r="A41" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>326</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" s="48"/>
-    </row>
-    <row r="42" spans="1:7" s="17" customFormat="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" s="17" customFormat="1">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" s="17" customFormat="1">
-      <c r="A44" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F44" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="G44" s="48"/>
-    </row>
-    <row r="45" spans="1:7" s="17" customFormat="1">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-    </row>
-    <row r="46" spans="1:7" s="17" customFormat="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-    </row>
-    <row r="47" spans="1:7" s="17" customFormat="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-    </row>
-    <row r="48" spans="1:7" s="17" customFormat="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-    </row>
-    <row r="49" spans="1:7" s="17" customFormat="1">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-    </row>
-    <row r="50" spans="1:7" s="17" customFormat="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-    </row>
-    <row r="51" spans="1:7" ht="24">
-      <c r="A51" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>368</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>369</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="G51" s="48"/>
-    </row>
-    <row r="52" spans="1:7" s="17" customFormat="1">
-      <c r="A52" s="50"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" ht="36">
-      <c r="A53" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="E53" s="55" t="s">
-        <v>378</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7" s="17" customFormat="1">
-      <c r="A54" s="50"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" s="17" customFormat="1">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:7" s="17" customFormat="1">
-      <c r="A56" s="50"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="1:7" s="17" customFormat="1">
-      <c r="A57" s="50"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" s="17" customFormat="1">
-      <c r="A59" s="50"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" s="17" customFormat="1">
-      <c r="A60" s="50"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" s="17" customFormat="1">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" s="17" customFormat="1">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" s="17" customFormat="1">
-      <c r="A64" s="50"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" s="17" customFormat="1">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="1:7" s="17" customFormat="1">
-      <c r="A67" s="50"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="1:7" s="17" customFormat="1">
-      <c r="A68" s="50"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7" s="17" customFormat="1">
-      <c r="A70" s="50"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="1:7" s="17" customFormat="1">
-      <c r="A71" s="50"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>419</v>
-      </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="F72" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="G72" s="52"/>
-    </row>
-    <row r="73" spans="1:7" s="17" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="F74" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="G74" s="48"/>
-    </row>
-    <row r="75" spans="1:7" s="17" customFormat="1">
-      <c r="A75" s="50"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="1:7" s="17" customFormat="1">
-      <c r="A76" s="50"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="1:7" s="17" customFormat="1">
-      <c r="A77" s="50"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="1:7" s="17" customFormat="1">
-      <c r="A78" s="50"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="1:7" s="17" customFormat="1">
-      <c r="A80" s="50"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="52" t="s">
-        <v>433</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="1:7" s="17" customFormat="1">
-      <c r="A81" s="50"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1">
-    <filterColumn colId="3"/>
-    <sortState ref="A2:D22">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5897,37 +6042,37 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>341</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>343</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29"/>
       <c r="B4" s="27"/>
       <c r="C4" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29"/>
       <c r="B5" s="27"/>
       <c r="C5" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -5937,19 +6082,19 @@
       <c r="A6" s="29"/>
       <c r="B6" s="27"/>
       <c r="C6" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -5959,7 +6104,7 @@
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -5969,7 +6114,7 @@
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -5979,7 +6124,7 @@
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
       <c r="C10" s="39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -7082,4 +7227,210 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A1" s="114" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="115" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="117" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="116" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="116"/>
+      <c r="E2" s="118"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="116" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="118" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="116" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="118"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="116" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="118"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="118"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="116" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="118"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="116"/>
+      <c r="B8" s="116" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="118"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="116"/>
+      <c r="B9" s="116" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="116"/>
+      <c r="B10" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="116"/>
+      <c r="B11" s="116" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="118"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="116" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="116" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="116" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="116" t="s">
+        <v>461</v>
+      </c>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="118">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="116" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="118" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/라키비움_경기천년사업과업정리1차.xlsx
+++ b/라키비움_경기천년사업과업정리1차.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-3915" yWindow="870" windowWidth="27975" windowHeight="13170"/>
+    <workbookView xWindow="750" yWindow="-195" windowWidth="27975" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3321,83 +3321,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3737,17 +3737,17 @@
   <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="40.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="78.625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="27.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="61.75" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="78.625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="61.75" customWidth="1"/>
     <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3887,7 +3887,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" s="93" customFormat="1" ht="24">
+    <row r="5" spans="1:25" s="92" customFormat="1" ht="24">
       <c r="A5" s="32" t="s">
         <v>1</v>
       </c>
@@ -3907,26 +3907,26 @@
         <v>386</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-    </row>
-    <row r="6" spans="1:25" s="93" customFormat="1" ht="36">
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+    </row>
+    <row r="6" spans="1:25" s="92" customFormat="1" ht="36">
       <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
@@ -3946,26 +3946,26 @@
         <v>386</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-    </row>
-    <row r="7" spans="1:25" s="93" customFormat="1">
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+    </row>
+    <row r="7" spans="1:25" s="92" customFormat="1">
       <c r="A7" s="32" t="s">
         <v>2</v>
       </c>
@@ -3983,26 +3983,26 @@
         <v>386</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-    </row>
-    <row r="8" spans="1:25" s="93" customFormat="1">
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+    </row>
+    <row r="8" spans="1:25" s="92" customFormat="1">
       <c r="A8" s="32" t="s">
         <v>145</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:25" s="93" customFormat="1" ht="24">
+    <row r="9" spans="1:25" s="92" customFormat="1" ht="24">
       <c r="A9" s="32" t="s">
         <v>145</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="93" customFormat="1">
+    <row r="10" spans="1:25" s="92" customFormat="1">
       <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
@@ -4064,30 +4064,30 @@
         <v>174</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-    </row>
-    <row r="11" spans="1:25" s="93" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A11" s="88" t="s">
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+    </row>
+    <row r="11" spans="1:25" s="92" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A11" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -4103,26 +4103,26 @@
         <v>174</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-    </row>
-    <row r="12" spans="1:25" s="93" customFormat="1">
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+    </row>
+    <row r="12" spans="1:25" s="92" customFormat="1">
       <c r="A12" s="28" t="s">
         <v>36</v>
       </c>
@@ -4140,26 +4140,26 @@
         <v>174</v>
       </c>
       <c r="G12" s="30"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-    </row>
-    <row r="13" spans="1:25" s="93" customFormat="1">
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+    </row>
+    <row r="13" spans="1:25" s="92" customFormat="1">
       <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
@@ -4179,26 +4179,26 @@
         <v>386</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-    </row>
-    <row r="14" spans="1:25" s="93" customFormat="1">
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+    </row>
+    <row r="14" spans="1:25" s="92" customFormat="1">
       <c r="A14" s="32" t="s">
         <v>153</v>
       </c>
@@ -4218,24 +4218,24 @@
         <v>386</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
     </row>
     <row r="15" spans="1:25" s="2" customFormat="1">
       <c r="A15" s="32" t="s">
@@ -4403,9 +4403,9 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="87"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="91" t="s">
+      <c r="A22" s="86"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="90" t="s">
         <v>298</v>
       </c>
       <c r="D22" s="31"/>
@@ -5296,8 +5296,8 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A73" s="88"/>
-      <c r="B73" s="90"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="89"/>
       <c r="C73" s="4" t="s">
         <v>406</v>
       </c>
@@ -5447,16 +5447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="109" customWidth="1"/>
-    <col min="2" max="2" width="56.375" style="110" customWidth="1"/>
-    <col min="3" max="3" width="60" style="92" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="28.75" style="92" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="72.25" style="111" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9" style="92"/>
+    <col min="1" max="1" width="21.75" style="108" customWidth="1"/>
+    <col min="2" max="2" width="56.375" style="109" customWidth="1"/>
+    <col min="3" max="3" width="60" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="28.75" style="91" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="72.25" style="110" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -5472,7 +5474,7 @@
       <c r="D1" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="98" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5500,7 +5502,7 @@
       <c r="D3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5566,7 +5568,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="54"/>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5600,7 +5602,7 @@
       <c r="D9" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5617,7 +5619,7 @@
       <c r="D10" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="99" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5634,7 +5636,7 @@
       <c r="D11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="99" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5651,7 +5653,7 @@
       <c r="D12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="99" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5685,7 +5687,7 @@
       <c r="D14" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="99" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5702,7 +5704,7 @@
       <c r="D15" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="99" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5736,7 +5738,7 @@
       <c r="D17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="99" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5804,7 +5806,7 @@
       <c r="D21" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="101" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5838,7 +5840,7 @@
       <c r="D23" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="100" t="s">
+      <c r="E23" s="99" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5855,7 +5857,7 @@
       <c r="D24" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="100" t="s">
+      <c r="E24" s="99" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5872,7 +5874,7 @@
       <c r="D25" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="99" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5889,20 +5891,20 @@
       <c r="D26" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="102" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96" t="s">
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5969,7 +5971,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="56"/>
-      <c r="E34" s="104"/>
+      <c r="E34" s="103"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="63"/>
@@ -5977,8 +5979,8 @@
       <c r="C35" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="105"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="104"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="67"/>
@@ -5986,8 +5988,8 @@
       <c r="C36" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="106"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="105"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="52"/>
@@ -6059,7 +6061,7 @@
         <v>78</v>
       </c>
       <c r="D44" s="55"/>
-      <c r="E44" s="100"/>
+      <c r="E44" s="99"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="52"/>
@@ -6068,7 +6070,7 @@
         <v>79</v>
       </c>
       <c r="D45" s="55"/>
-      <c r="E45" s="100"/>
+      <c r="E45" s="99"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="58"/>
@@ -6077,7 +6079,7 @@
         <v>133</v>
       </c>
       <c r="D46" s="39"/>
-      <c r="E46" s="102"/>
+      <c r="E46" s="101"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="58"/>
@@ -6086,7 +6088,7 @@
         <v>134</v>
       </c>
       <c r="D47" s="39"/>
-      <c r="E47" s="102"/>
+      <c r="E47" s="101"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="58"/>
@@ -6095,7 +6097,7 @@
         <v>135</v>
       </c>
       <c r="D48" s="39"/>
-      <c r="E48" s="102"/>
+      <c r="E48" s="101"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="58"/>
@@ -6104,7 +6106,7 @@
         <v>136</v>
       </c>
       <c r="D49" s="39"/>
-      <c r="E49" s="102"/>
+      <c r="E49" s="101"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="58"/>
@@ -6113,7 +6115,7 @@
         <v>137</v>
       </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="102"/>
+      <c r="E50" s="101"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="58"/>
@@ -6122,7 +6124,7 @@
         <v>141</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="102"/>
+      <c r="E51" s="101"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="58"/>
@@ -6131,7 +6133,7 @@
         <v>142</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="102"/>
+      <c r="E52" s="101"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="52"/>
@@ -6257,7 +6259,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="65"/>
-      <c r="E66" s="107"/>
+      <c r="E66" s="106"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="67"/>
@@ -6266,7 +6268,7 @@
         <v>62</v>
       </c>
       <c r="D67" s="62"/>
-      <c r="E67" s="108"/>
+      <c r="E67" s="107"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="52"/>
@@ -6419,7 +6421,7 @@
         <v>91</v>
       </c>
       <c r="D84" s="39"/>
-      <c r="E84" s="102"/>
+      <c r="E84" s="101"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="58"/>
@@ -6428,7 +6430,7 @@
         <v>92</v>
       </c>
       <c r="D85" s="39"/>
-      <c r="E85" s="102"/>
+      <c r="E85" s="101"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="58"/>
@@ -6437,7 +6439,7 @@
         <v>93</v>
       </c>
       <c r="D86" s="39"/>
-      <c r="E86" s="102"/>
+      <c r="E86" s="101"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="58"/>
@@ -6446,7 +6448,7 @@
         <v>125</v>
       </c>
       <c r="D87" s="39"/>
-      <c r="E87" s="102"/>
+      <c r="E87" s="101"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="58"/>
@@ -6455,7 +6457,7 @@
         <v>126</v>
       </c>
       <c r="D88" s="39"/>
-      <c r="E88" s="102"/>
+      <c r="E88" s="101"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="58"/>
@@ -6464,7 +6466,7 @@
         <v>127</v>
       </c>
       <c r="D89" s="39"/>
-      <c r="E89" s="102"/>
+      <c r="E89" s="101"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="58"/>
@@ -6473,7 +6475,7 @@
         <v>128</v>
       </c>
       <c r="D90" s="39"/>
-      <c r="E90" s="102"/>
+      <c r="E90" s="101"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="58"/>
@@ -6482,7 +6484,7 @@
         <v>149</v>
       </c>
       <c r="D91" s="39"/>
-      <c r="E91" s="102"/>
+      <c r="E91" s="101"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="58"/>
@@ -6491,7 +6493,7 @@
         <v>150</v>
       </c>
       <c r="D92" s="39"/>
-      <c r="E92" s="102"/>
+      <c r="E92" s="101"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
@@ -6510,9 +6512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7767,10 +7769,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="111" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="82" t="s">
         <v>435</v>
       </c>
